--- a/url1.xlsx
+++ b/url1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>title</t>
   </si>
@@ -31,52 +31,55 @@
     <t>rating</t>
   </si>
   <si>
-    <t>is_superhost</t>
+    <t>superhost</t>
   </si>
   <si>
     <t>Casa em Araruama</t>
   </si>
   <si>
+    <t>Casa em Parque Hotel</t>
+  </si>
+  <si>
     <t>Apartamento em Araruama</t>
   </si>
   <si>
-    <t>Casa em Parque Hotel</t>
-  </si>
-  <si>
     <t>Casa em Fazendinha</t>
   </si>
   <si>
     <t>Casa de campo em Praia Seca</t>
   </si>
   <si>
+    <t>Chalé em Coqueiral</t>
+  </si>
+  <si>
     <t>Casa de campo em Outeiro</t>
   </si>
   <si>
-    <t>Chalé em Coqueiral</t>
-  </si>
-  <si>
     <t>Quarto privativo em Araruama</t>
   </si>
   <si>
     <t>Região dos lagos - Araruama - Saquarema - Arraial</t>
   </si>
   <si>
+    <t>Aconchegante Casa - Quintal &amp; Garagem</t>
+  </si>
+  <si>
     <t>Casa em Araruama 1</t>
   </si>
   <si>
     <t>Pedacinho do Céu</t>
   </si>
   <si>
+    <t>Recanto para curtir e relaxar em Araruama</t>
+  </si>
+  <si>
+    <t>Apartamento em frente a lagoa de Araruama</t>
+  </si>
+  <si>
     <t>Casa tranquila, bem localizada Ar opcional Tv wifi</t>
   </si>
   <si>
-    <t>Apartamento em frente a lagoa de Araruama</t>
-  </si>
-  <si>
-    <t>Recanto para curtir e relaxar em Araruama</t>
-  </si>
-  <si>
-    <t>Aconchegante Casa - Quintal &amp; Garagem</t>
+    <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
   </si>
   <si>
     <t>Meu aconchego</t>
@@ -88,76 +91,73 @@
     <t>Casa Maravilhosa com Lagoa privativa</t>
   </si>
   <si>
-    <t>Casa recanto Coqueiral</t>
+    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
   </si>
   <si>
     <t>Casa com piscina no Condomínio Sonho de Vida</t>
   </si>
   <si>
-    <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
-  </si>
-  <si>
-    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
-  </si>
-  <si>
-    <t>Loft agradável em Araruama.</t>
+    <t>Apto na Região dos lagos. Aconchegante e central.</t>
+  </si>
+  <si>
+    <t>Suíte aconchegante no centro de Praia Seca.</t>
+  </si>
+  <si>
+    <t>Curta o melhor de Araruama e Região dos Lagos</t>
   </si>
   <si>
     <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
   </si>
   <si>
-    <t>Apto na Região dos lagos. Aconchegante e central.</t>
-  </si>
-  <si>
     <t>Aluguel por temporada com piscina privativa</t>
   </si>
   <si>
     <t>2 camas de casal</t>
   </si>
   <si>
+    <t>1 cama queen</t>
+  </si>
+  <si>
     <t>4 camas</t>
   </si>
   <si>
     <t>1 cama de casal</t>
   </si>
   <si>
+    <t>3 camas</t>
+  </si>
+  <si>
     <t>2 camas</t>
   </si>
   <si>
-    <t>3 camas</t>
-  </si>
-  <si>
-    <t>1 cama queen</t>
-  </si>
-  <si>
     <t>9 camas</t>
   </si>
   <si>
     <t>3 camas de casal</t>
   </si>
   <si>
-    <t>1 cama</t>
-  </si>
-  <si>
     <t>R$110 por noite</t>
   </si>
   <si>
+    <t>R$137 por noite</t>
+  </si>
+  <si>
     <t>R$106 por noite</t>
   </si>
   <si>
     <t>R$96 por noite</t>
   </si>
   <si>
+    <t>R$210 por noite</t>
+  </si>
+  <si>
+    <t>R$173 por noite, originalmente R$211</t>
+  </si>
+  <si>
     <t>R$118 por noite</t>
   </si>
   <si>
-    <t>R$173 por noite, originalmente R$211</t>
-  </si>
-  <si>
-    <t>R$210 por noite</t>
-  </si>
-  <si>
-    <t>R$137 por noite</t>
+    <t>R$189 por noite, originalmente R$302</t>
   </si>
   <si>
     <t>R$187 por noite, originalmente R$235</t>
@@ -166,49 +166,49 @@
     <t>R$117 por noite</t>
   </si>
   <si>
-    <t>R$345 por noite</t>
+    <t>R$91 por noite</t>
   </si>
   <si>
     <t>R$290 por noite, originalmente R$352</t>
   </si>
   <si>
-    <t>R$189 por noite, originalmente R$302</t>
-  </si>
-  <si>
-    <t>R$91 por noite</t>
-  </si>
-  <si>
-    <t>R$136 por noite</t>
+    <t>R$140 por noite</t>
+  </si>
+  <si>
+    <t>R$136 por noite, originalmente R$166</t>
+  </si>
+  <si>
+    <t>R$133 por noite</t>
   </si>
   <si>
     <t>R$116 por noite, originalmente R$137</t>
   </si>
   <si>
-    <t>R$140 por noite</t>
-  </si>
-  <si>
     <t>R$315 por noite</t>
   </si>
   <si>
     <t>4,79 (282)</t>
   </si>
   <si>
+    <t>4,89 (46)</t>
+  </si>
+  <si>
     <t>4,97 (158)</t>
   </si>
   <si>
     <t>4,92 (12)</t>
   </si>
   <si>
+    <t>5,0 (29)</t>
+  </si>
+  <si>
+    <t>4,85 (26)</t>
+  </si>
+  <si>
     <t>4,9 (21)</t>
   </si>
   <si>
-    <t>4,85 (26)</t>
-  </si>
-  <si>
-    <t>5,0 (29)</t>
-  </si>
-  <si>
-    <t>4,89 (46)</t>
+    <t>5,0 (9)</t>
   </si>
   <si>
     <t>4,89 (9)</t>
@@ -220,28 +220,28 @@
     <t>4,75 (20)</t>
   </si>
   <si>
-    <t>Novo</t>
+    <t>4,84 (75)</t>
   </si>
   <si>
     <t>5,0 (21)</t>
   </si>
   <si>
-    <t>5,0 (9)</t>
-  </si>
-  <si>
-    <t>4,84 (75)</t>
+    <t>4,71 (7)</t>
+  </si>
+  <si>
+    <t>5,0 (11)</t>
+  </si>
+  <si>
+    <t>4,89 (28)</t>
   </si>
   <si>
     <t>4,92 (173)</t>
   </si>
   <si>
-    <t>4,71 (7)</t>
-  </si>
-  <si>
     <t>4,97 (66)</t>
   </si>
   <si>
-    <t>&lt;div class="t1mwk1n0 dir dir-ltr"&gt;Superhost&lt;/div&gt;</t>
+    <t>Superhost</t>
   </si>
 </sst>
 </file>
@@ -636,15 +636,15 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -653,10 +653,10 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
@@ -673,10 +673,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
@@ -693,10 +693,10 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>75</v>
@@ -704,44 +704,44 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -750,10 +750,10 @@
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -767,67 +767,70 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -838,33 +841,30 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>75</v>
@@ -872,41 +872,44 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -915,7 +918,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -935,10 +938,13 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>

--- a/url1.xlsx
+++ b/url1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>title</t>
   </si>
@@ -34,214 +34,226 @@
     <t>superhost</t>
   </si>
   <si>
+    <t>execution_time</t>
+  </si>
+  <si>
     <t>Casa em Araruama</t>
   </si>
   <si>
+    <t>Apartamento em Araruama</t>
+  </si>
+  <si>
+    <t>Casa em Fazendinha</t>
+  </si>
+  <si>
     <t>Casa em Parque Hotel</t>
   </si>
   <si>
-    <t>Apartamento em Araruama</t>
-  </si>
-  <si>
-    <t>Casa em Fazendinha</t>
+    <t>Chalé em Coqueiral</t>
   </si>
   <si>
     <t>Casa de campo em Praia Seca</t>
   </si>
   <si>
-    <t>Chalé em Coqueiral</t>
+    <t>Quarto privativo em Araruama</t>
   </si>
   <si>
     <t>Casa de campo em Outeiro</t>
   </si>
   <si>
-    <t>Quarto privativo em Araruama</t>
-  </si>
-  <si>
     <t>Região dos lagos - Araruama - Saquarema - Arraial</t>
   </si>
   <si>
+    <t>Casa em Araruama 1</t>
+  </si>
+  <si>
+    <t>Casa tranquila, bem localizada Ar opcional Tv wifi</t>
+  </si>
+  <si>
+    <t>Pedacinho do Céu</t>
+  </si>
+  <si>
+    <t>Apartamento em frente a lagoa de Araruama</t>
+  </si>
+  <si>
+    <t>Casa em Araruama 2</t>
+  </si>
+  <si>
     <t>Aconchegante Casa - Quintal &amp; Garagem</t>
   </si>
   <si>
-    <t>Casa em Araruama 1</t>
-  </si>
-  <si>
-    <t>Pedacinho do Céu</t>
+    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
+  </si>
+  <si>
+    <t>Meu aconchego</t>
+  </si>
+  <si>
+    <t>Casa Maravilhosa com Lagoa privativa</t>
+  </si>
+  <si>
+    <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
+  </si>
+  <si>
+    <t>Apto na Região dos lagos. Aconchegante e central.</t>
+  </si>
+  <si>
+    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
+  </si>
+  <si>
+    <t>Loft agradável em Araruama.</t>
   </si>
   <si>
     <t>Recanto para curtir e relaxar em Araruama</t>
   </si>
   <si>
-    <t>Apartamento em frente a lagoa de Araruama</t>
-  </si>
-  <si>
-    <t>Casa tranquila, bem localizada Ar opcional Tv wifi</t>
-  </si>
-  <si>
-    <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
-  </si>
-  <si>
-    <t>Meu aconchego</t>
-  </si>
-  <si>
-    <t>Casa em Araruama 2</t>
-  </si>
-  <si>
-    <t>Casa Maravilhosa com Lagoa privativa</t>
-  </si>
-  <si>
-    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
-  </si>
-  <si>
     <t>Casa com piscina no Condomínio Sonho de Vida</t>
   </si>
   <si>
-    <t>Apto na Região dos lagos. Aconchegante e central.</t>
-  </si>
-  <si>
     <t>Suíte aconchegante no centro de Praia Seca.</t>
   </si>
   <si>
-    <t>Curta o melhor de Araruama e Região dos Lagos</t>
-  </si>
-  <si>
-    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
-  </si>
-  <si>
     <t>Aluguel por temporada com piscina privativa</t>
   </si>
   <si>
     <t>2 camas de casal</t>
   </si>
   <si>
+    <t>4 camas</t>
+  </si>
+  <si>
+    <t>2 camas</t>
+  </si>
+  <si>
+    <t>1 cama de casal</t>
+  </si>
+  <si>
     <t>1 cama queen</t>
   </si>
   <si>
-    <t>4 camas</t>
-  </si>
-  <si>
-    <t>1 cama de casal</t>
-  </si>
-  <si>
     <t>3 camas</t>
   </si>
   <si>
-    <t>2 camas</t>
-  </si>
-  <si>
     <t>9 camas</t>
   </si>
   <si>
     <t>3 camas de casal</t>
   </si>
   <si>
-    <t>R$110 por noite</t>
+    <t>1 cama</t>
+  </si>
+  <si>
+    <t>R$114 por noite</t>
+  </si>
+  <si>
+    <t>R$106 por noite</t>
+  </si>
+  <si>
+    <t>R$118 por noite</t>
+  </si>
+  <si>
+    <t>R$85 por noite, originalmente R$93</t>
+  </si>
+  <si>
+    <t>R$173 por noite, originalmente R$211</t>
+  </si>
+  <si>
+    <t>R$98 por noite, originalmente R$109</t>
   </si>
   <si>
     <t>R$137 por noite</t>
   </si>
   <si>
-    <t>R$106 por noite</t>
-  </si>
-  <si>
-    <t>R$96 por noite</t>
+    <t>R$91 por noite</t>
+  </si>
+  <si>
+    <t>R$189 por noite, originalmente R$235</t>
+  </si>
+  <si>
+    <t>R$116 por noite</t>
+  </si>
+  <si>
+    <t>R$189 por noite, originalmente R$301</t>
+  </si>
+  <si>
+    <t>R$140 por noite</t>
+  </si>
+  <si>
+    <t>R$110 por noite, originalmente R$135</t>
+  </si>
+  <si>
+    <t>R$131 por noite</t>
   </si>
   <si>
     <t>R$210 por noite</t>
   </si>
   <si>
-    <t>R$173 por noite, originalmente R$211</t>
-  </si>
-  <si>
-    <t>R$118 por noite</t>
-  </si>
-  <si>
-    <t>R$189 por noite, originalmente R$302</t>
-  </si>
-  <si>
-    <t>R$187 por noite, originalmente R$235</t>
-  </si>
-  <si>
-    <t>R$117 por noite</t>
-  </si>
-  <si>
-    <t>R$91 por noite</t>
-  </si>
-  <si>
     <t>R$290 por noite, originalmente R$352</t>
   </si>
   <si>
-    <t>R$140 por noite</t>
-  </si>
-  <si>
     <t>R$136 por noite, originalmente R$166</t>
   </si>
   <si>
-    <t>R$133 por noite</t>
-  </si>
-  <si>
-    <t>R$116 por noite, originalmente R$137</t>
-  </si>
-  <si>
     <t>R$315 por noite</t>
   </si>
   <si>
     <t>4,79 (282)</t>
   </si>
   <si>
+    <t>4,97 (159)</t>
+  </si>
+  <si>
+    <t>4,9 (21)</t>
+  </si>
+  <si>
+    <t>4,92 (12)</t>
+  </si>
+  <si>
+    <t>4,85 (26)</t>
+  </si>
+  <si>
+    <t>5,0 (27)</t>
+  </si>
+  <si>
     <t>4,89 (46)</t>
   </si>
   <si>
-    <t>4,97 (158)</t>
-  </si>
-  <si>
-    <t>4,92 (12)</t>
+    <t>4,84 (75)</t>
+  </si>
+  <si>
+    <t>4,9 (10)</t>
+  </si>
+  <si>
+    <t>4,77 (22)</t>
+  </si>
+  <si>
+    <t>5,0 (9)</t>
+  </si>
+  <si>
+    <t>4,71 (7)</t>
+  </si>
+  <si>
+    <t>4,92 (173)</t>
+  </si>
+  <si>
+    <t>Novo</t>
   </si>
   <si>
     <t>5,0 (29)</t>
   </si>
   <si>
-    <t>4,85 (26)</t>
-  </si>
-  <si>
-    <t>4,9 (21)</t>
-  </si>
-  <si>
-    <t>5,0 (9)</t>
-  </si>
-  <si>
-    <t>4,89 (9)</t>
-  </si>
-  <si>
-    <t>5,0 (26)</t>
-  </si>
-  <si>
-    <t>4,75 (20)</t>
-  </si>
-  <si>
-    <t>4,84 (75)</t>
-  </si>
-  <si>
     <t>5,0 (21)</t>
   </si>
   <si>
-    <t>4,71 (7)</t>
-  </si>
-  <si>
     <t>5,0 (11)</t>
   </si>
   <si>
-    <t>4,89 (28)</t>
-  </si>
-  <si>
-    <t>4,92 (173)</t>
-  </si>
-  <si>
-    <t>4,97 (66)</t>
+    <t>4,97 (67)</t>
   </si>
   <si>
     <t>Superhost</t>
+  </si>
+  <si>
+    <t>24/04/2023 21:45:58</t>
   </si>
 </sst>
 </file>
@@ -599,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,347 +636,401 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/url1.xlsx
+++ b/url1.xlsx
@@ -14,27 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>title</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>subtitle</t>
   </si>
   <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
     <t>bedrooms</t>
   </si>
   <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
     <t>rating</t>
   </si>
   <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
     <t>superhost</t>
   </si>
   <si>
-    <t>execution_time</t>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>execution</t>
   </si>
   <si>
     <t>Casa em Araruama</t>
@@ -43,85 +79,93 @@
     <t>Apartamento em Araruama</t>
   </si>
   <si>
+    <t>Casa em Parque Hotel</t>
+  </si>
+  <si>
     <t>Casa em Fazendinha</t>
   </si>
   <si>
-    <t>Casa em Parque Hotel</t>
-  </si>
-  <si>
-    <t>Chalé em Coqueiral</t>
-  </si>
-  <si>
     <t>Casa de campo em Praia Seca</t>
   </si>
   <si>
+    <t>Casa de campo em Araruama</t>
+  </si>
+  <si>
+    <t>Casa de campo em Outeiro</t>
+  </si>
+  <si>
     <t>Quarto privativo em Araruama</t>
   </si>
   <si>
-    <t>Casa de campo em Outeiro</t>
+    <t>Casa de hóspedes em Pontinha</t>
   </si>
   <si>
     <t>Região dos lagos - Araruama - Saquarema - Arraial</t>
   </si>
   <si>
+    <t>Casa tranquila, bem localizada Ar opcional Tv wifi</t>
+  </si>
+  <si>
     <t>Casa em Araruama 1</t>
   </si>
   <si>
-    <t>Casa tranquila, bem localizada Ar opcional Tv wifi</t>
+    <t>Meu aconchego</t>
+  </si>
+  <si>
+    <t>Apartamento em frente a lagoa de Araruama</t>
   </si>
   <si>
     <t>Pedacinho do Céu</t>
   </si>
   <si>
-    <t>Apartamento em frente a lagoa de Araruama</t>
+    <t>Aconchegante Casa - Quintal &amp; Garagem</t>
   </si>
   <si>
     <t>Casa em Araruama 2</t>
   </si>
   <si>
-    <t>Aconchegante Casa - Quintal &amp; Garagem</t>
-  </si>
-  <si>
-    <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
-  </si>
-  <si>
-    <t>Meu aconchego</t>
-  </si>
-  <si>
     <t>Casa Maravilhosa com Lagoa privativa</t>
   </si>
   <si>
+    <t>Aluguel por temporada com piscina privativa</t>
+  </si>
+  <si>
+    <t>Casa de Praia agradável com piscina em Praia Seca</t>
+  </si>
+  <si>
+    <t>Apto na Região dos lagos. Aconchegante e central.</t>
+  </si>
+  <si>
+    <t>Recanto para curtir e relaxar em Araruama</t>
+  </si>
+  <si>
     <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
   </si>
   <si>
-    <t>Apto na Região dos lagos. Aconchegante e central.</t>
-  </si>
-  <si>
-    <t>VEM! Casa Rodrigues - Praia Seca, Araruama</t>
-  </si>
-  <si>
-    <t>Loft agradável em Araruama.</t>
-  </si>
-  <si>
-    <t>Recanto para curtir e relaxar em Araruama</t>
-  </si>
-  <si>
     <t>Casa com piscina no Condomínio Sonho de Vida</t>
   </si>
   <si>
     <t>Suíte aconchegante no centro de Praia Seca.</t>
   </si>
   <si>
-    <t>Aluguel por temporada com piscina privativa</t>
+    <t>Kitinete em Araruama/RJ!
+Centro!
+Perto da Praia!</t>
+  </si>
+  <si>
+    <t>Casa do Alto da Pontinha</t>
   </si>
   <si>
     <t>2 camas de casal</t>
   </si>
   <si>
+    <t>2 camas</t>
+  </si>
+  <si>
     <t>4 camas</t>
   </si>
   <si>
-    <t>2 camas</t>
+    <t>9 camas</t>
   </si>
   <si>
     <t>1 cama de casal</t>
@@ -130,114 +174,105 @@
     <t>1 cama queen</t>
   </si>
   <si>
+    <t>3 camas de casal</t>
+  </si>
+  <si>
     <t>3 camas</t>
   </si>
   <si>
-    <t>9 camas</t>
-  </si>
-  <si>
-    <t>3 camas de casal</t>
-  </si>
-  <si>
-    <t>1 cama</t>
+    <t>5 camas</t>
   </si>
   <si>
     <t>R$114 por noite</t>
   </si>
   <si>
+    <t>R$118 por noite</t>
+  </si>
+  <si>
     <t>R$106 por noite</t>
   </si>
   <si>
-    <t>R$118 por noite</t>
+    <t>R$189 por noite, originalmente R$235</t>
+  </si>
+  <si>
+    <t>R$173 por noite, originalmente R$211</t>
   </si>
   <si>
     <t>R$85 por noite, originalmente R$93</t>
   </si>
   <si>
-    <t>R$173 por noite, originalmente R$211</t>
+    <t>R$137 por noite</t>
   </si>
   <si>
     <t>R$98 por noite, originalmente R$109</t>
   </si>
   <si>
-    <t>R$137 por noite</t>
-  </si>
-  <si>
-    <t>R$91 por noite</t>
-  </si>
-  <si>
-    <t>R$189 por noite, originalmente R$235</t>
-  </si>
-  <si>
     <t>R$116 por noite</t>
   </si>
   <si>
+    <t>R$315 por noite</t>
+  </si>
+  <si>
+    <t>R$258 por noite, originalmente R$327</t>
+  </si>
+  <si>
+    <t>R$140 por noite</t>
+  </si>
+  <si>
+    <t>R$210 por noite</t>
+  </si>
+  <si>
     <t>R$189 por noite, originalmente R$301</t>
   </si>
   <si>
-    <t>R$140 por noite</t>
-  </si>
-  <si>
-    <t>R$110 por noite, originalmente R$135</t>
-  </si>
-  <si>
-    <t>R$131 por noite</t>
-  </si>
-  <si>
-    <t>R$210 por noite</t>
-  </si>
-  <si>
     <t>R$290 por noite, originalmente R$352</t>
   </si>
   <si>
     <t>R$136 por noite, originalmente R$166</t>
   </si>
   <si>
-    <t>R$315 por noite</t>
+    <t>R$198 por noite</t>
+  </si>
+  <si>
+    <t>R$72 por noite</t>
   </si>
   <si>
     <t>4,79 (282)</t>
   </si>
   <si>
+    <t>4,9 (21)</t>
+  </si>
+  <si>
     <t>4,97 (159)</t>
   </si>
   <si>
-    <t>4,9 (21)</t>
+    <t>4,9 (10)</t>
+  </si>
+  <si>
+    <t>4,85 (26)</t>
   </si>
   <si>
     <t>4,92 (12)</t>
   </si>
   <si>
-    <t>4,85 (26)</t>
+    <t>4,89 (46)</t>
   </si>
   <si>
     <t>5,0 (27)</t>
   </si>
   <si>
-    <t>4,89 (46)</t>
-  </si>
-  <si>
-    <t>4,84 (75)</t>
-  </si>
-  <si>
-    <t>4,9 (10)</t>
-  </si>
-  <si>
     <t>4,77 (22)</t>
   </si>
   <si>
+    <t>4,97 (67)</t>
+  </si>
+  <si>
     <t>5,0 (9)</t>
   </si>
   <si>
     <t>4,71 (7)</t>
   </si>
   <si>
-    <t>4,92 (173)</t>
-  </si>
-  <si>
-    <t>Novo</t>
-  </si>
-  <si>
     <t>5,0 (29)</t>
   </si>
   <si>
@@ -247,13 +282,16 @@
     <t>5,0 (11)</t>
   </si>
   <si>
-    <t>4,97 (67)</t>
+    <t>4,8 (10)</t>
+  </si>
+  <si>
+    <t>4,83 (18)</t>
   </si>
   <si>
     <t>Superhost</t>
   </si>
   <si>
-    <t>24/04/2023 21:45:58</t>
+    <t>25/04/2023 00:04:07</t>
   </si>
 </sst>
 </file>
@@ -611,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,398 +677,434 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="K19" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/url1.xlsx
+++ b/url1.xlsx
@@ -577,13 +577,13 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Casa em Araruama 1</t>
+          <t>Pedacinho do Céu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -606,13 +606,13 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4 camas</t>
+          <t>1 cama de casal</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R$106 por noite</t>
+          <t>R$85 por noite, originalmente R$93</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -620,7 +620,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4,97 (159)</t>
+          <t>4,92 (12)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -632,27 +632,27 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Casa em Araruama</t>
+          <t>Casa em Parque Hotel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pedacinho do Céu</t>
+          <t>Aconchegante Casa - Quintal &amp; Garagem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -661,13 +661,13 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1 cama de casal</t>
+          <t>1 cama queen</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R$85 por noite, originalmente R$93</t>
+          <t>R$137 por noite</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,7 +675,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4,92 (12)</t>
+          <t>4,89 (46)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -687,27 +687,27 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apartamento em Araruama</t>
+          <t>Casa em Fazendinha</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Apartamento em frente a lagoa de Araruama</t>
+          <t>Casa em Araruama 2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -716,13 +716,13 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2 camas</t>
+          <t>4 camas</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R$173 por noite, originalmente R$211</t>
+          <t>R$98 por noite, originalmente R$109</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -730,21 +730,25 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4,85 (26)</t>
+          <t>5,0 (27)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -758,7 +762,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Meu aconchego</t>
+          <t>Casa em Araruama 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -767,13 +771,13 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9 camas</t>
+          <t>4 camas</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R$202 por noite, originalmente R$222</t>
+          <t>R$106 por noite</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -781,35 +785,39 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4,9 (10)</t>
+          <t>4,97 (159)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Casa em Parque Hotel</t>
+          <t>Casa em Araruama</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aconchegante Casa - Quintal &amp; Garagem</t>
+          <t>Meu aconchego</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -818,13 +826,13 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1 cama queen</t>
+          <t>9 camas</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R$137 por noite</t>
+          <t>R$202 por noite, originalmente R$222</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -832,39 +840,35 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4,89 (46)</t>
+          <t>4,9 (10)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Superhost</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Casa em Fazendinha</t>
+          <t>Apartamento em Araruama</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Casa em Araruama 2</t>
+          <t>Apartamento em frente a lagoa de Araruama</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -873,13 +877,13 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4 camas</t>
+          <t>2 camas</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R$98 por noite, originalmente R$109</t>
+          <t>R$173 por noite, originalmente R$211</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -887,25 +891,21 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5,0 (27)</t>
+          <t>4,85 (26)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Superhost</t>
-        </is>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -954,27 +954,27 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Casa de campo em Praia Seca</t>
+          <t>Casa em Araruama</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Casa Maravilhosa com Lagoa privativa</t>
+          <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -983,13 +983,13 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3 camas de casal</t>
+          <t>2 camas</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R$117 por noite</t>
+          <t>R$189 por noite, originalmente R$302</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -997,21 +997,25 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4,77 (22)</t>
+          <t>5,0 (9)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1029,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aluguel por temporada com piscina privativa</t>
+          <t>Loft completo para temporada</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1034,13 +1038,13 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3 camas</t>
+          <t>2 camas</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R$315 por noite</t>
+          <t>R$296 por noite</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1048,39 +1052,35 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>4,97 (67)</t>
+          <t>4,92 (25)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Superhost</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Apartamento em Araruama</t>
+          <t>Casa em Araruama</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Apto na Região dos lagos. Aconchegante e central.</t>
+          <t>Aluguel por temporada com piscina privativa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1089,13 +1089,13 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2 camas</t>
+          <t>3 camas</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R$140 por noite</t>
+          <t>R$315 por noite</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1103,35 +1103,39 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>4,71 (7)</t>
+          <t>4,97 (67)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chalé em Coqueiral</t>
+          <t>Apartamento em Araruama</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chalé Recantinho da Lagoa, Araruama,Rj</t>
+          <t>Apto na Região dos lagos. Aconchegante e central.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1140,13 +1144,13 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3 camas</t>
+          <t>2 camas</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R$91 por noite</t>
+          <t>R$140 por noite</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1154,7 +1158,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4,84 (75)</t>
+          <t>4,71 (7)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1162,27 +1166,27 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Casa em Parque Hotel</t>
+          <t>Casa de campo em Praia Seca</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Curta o melhor de Araruama e Região dos Lagos</t>
+          <t>Casa Maravilhosa com Lagoa privativa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1191,13 +1195,13 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4 camas</t>
+          <t>3 camas de casal</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R$133 por noite</t>
+          <t>R$117 por noite</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1205,25 +1209,21 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4,9 (29)</t>
+          <t>4,77 (22)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Superhost</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Casa em Araruama</t>
+          <t>Casa de hóspedes em Pontinha</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>loft &lt;SPA&lt; onde você descansa relaxa e se renova</t>
+          <t>Casa do Alto da Pontinha</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R$189 por noite, originalmente R$302</t>
+          <t>R$72 por noite</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5,0 (9)</t>
+          <t>4,83 (18)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
@@ -1323,29 +1323,27 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apartamento em Araruama</t>
+          <t>Casa de campo em Outeiro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kitinete em Araruama/RJ!
-Centro!
-Perto da Praia!</t>
+          <t>Casa com piscina no Condomínio Sonho de Vida</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1354,13 +1352,13 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2 camas</t>
+          <t>4 camas</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R$198 por noite</t>
+          <t>R$290 por noite, originalmente R$352</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1368,35 +1366,41 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4,8 (10)</t>
+          <t>5,0 (22)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Casa de campo em Outeiro</t>
+          <t>Apartamento em Araruama</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Casa com piscina no Condomínio Sonho de Vida</t>
+          <t>Kitinete em Araruama/RJ!
+Centro!
+Perto da Praia!</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1405,13 +1409,13 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4 camas</t>
+          <t>2 camas</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R$290 por noite, originalmente R$352</t>
+          <t>R$198 por noite</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1419,39 +1423,35 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5,0 (22)</t>
+          <t>4,8 (10)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Superhost</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Casa de campo em Araruama</t>
+          <t>Apartamento em Parque Hotel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Casa de Praia agradável com piscina em Praia Seca</t>
+          <t>Apartamento na Lagoa de Araruama</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1460,13 +1460,13 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5 camas</t>
+          <t>3 camas</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R$257 por noite, originalmente R$326</t>
+          <t>R$208 por noite</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1474,21 +1474,25 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5,0 (9)</t>
+          <t>4,94 (17)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Superhost</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t>R$ 160.56</t>
+          <t>R$ 165.83</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>27/04/2023 15:00:13</t>
+          <t>27/04/2023 15:23:27</t>
         </is>
       </c>
     </row>
